--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketZhongDu.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>物料出库明细</t>
   </si>
@@ -63,7 +63,7 @@
   </si>
   <si>
     <t>@var ticket=deliveryOrder; var items=deliveryOrderItems;""//初始化代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,282 +80,244 @@
       </rPr>
       <t>deliverTime</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分拣人:@ticket.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upplierName</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nit</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nitAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ealAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nitAmount*items[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ealAmount</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>@items[i].comment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分拣人:@items[0].p</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ersonName</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>收货方:@ticket.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>estination</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>upplierName</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nit</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nitAmount</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ealAmount</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nitAmount*items[i].</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ealAmount</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>@items[i].comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +343,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -584,10 +539,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,19 +560,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,7 +635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,7 +670,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,7 +882,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,9 +915,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="D2" s="16"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1016,33 +969,33 @@
         <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1054,7 +1007,7 @@
       <c r="I6" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1068,7 +1021,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1082,7 +1035,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
